--- a/data/trans_bre/P2A_psíq_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P2A_psíq_R-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>0.6725906270278802</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.06779770542763297</v>
+        <v>0.06779770542763262</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>3.100025526271859</v>
@@ -649,7 +649,7 @@
         <v>2.657237562887381</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.02826215660207529</v>
+        <v>0.02826215660207514</v>
       </c>
     </row>
     <row r="5">
@@ -660,26 +660,24 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01663353750340023</v>
+        <v>0.0276377536943882</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.394754348310018</v>
+        <v>-0.5262734906984282</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.2229991205652947</v>
+        <v>-0.2192370915970322</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.757772663080218</v>
-      </c>
-      <c r="G5" s="6" t="n">
-        <v>-0.6187311976279459</v>
-      </c>
+        <v>-1.789970356903844</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
       <c r="H5" s="6" t="n">
-        <v>-0.4478977762974056</v>
+        <v>-0.4835924908849799</v>
       </c>
       <c r="I5" s="6" t="inlineStr"/>
       <c r="J5" s="6" t="n">
-        <v>-0.5569437082559268</v>
+        <v>-0.5478823660195228</v>
       </c>
     </row>
     <row r="6">
@@ -690,24 +688,24 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.517755804755444</v>
+        <v>3.462475869328875</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.06796102078183</v>
+        <v>3.800913979561375</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.349107376840463</v>
+        <v>2.162673462547989</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.954666655181777</v>
+        <v>1.944250318626845</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
-        <v>7.997215154162716</v>
+        <v>8.174451327213337</v>
       </c>
       <c r="I6" s="6" t="inlineStr"/>
       <c r="J6" s="6" t="n">
-        <v>1.343908684351883</v>
+        <v>1.288240916166127</v>
       </c>
     </row>
     <row r="7">
@@ -754,26 +752,26 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.472770012563685</v>
+        <v>-1.551825657852241</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-4.255536699109825</v>
+        <v>-4.002566304648755</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.125800251180045</v>
+        <v>-1.225246288048738</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.9322023210505263</v>
+        <v>-0.8139035718573995</v>
       </c>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.8608296066312889</v>
+        <v>-0.8351483235431372</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3960408058823441</v>
+        <v>-0.3913096500638719</v>
       </c>
     </row>
     <row r="9">
@@ -784,26 +782,26 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.161251124389429</v>
+        <v>1.091072946973781</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04200577538696063</v>
+        <v>-0.06691793418719713</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.607565151833781</v>
+        <v>2.690487628936017</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.435064441254953</v>
+        <v>2.446136093558046</v>
       </c>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="n">
-        <v>0.5995280389892194</v>
+        <v>0.6075492284257928</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>11.07258236141074</v>
+        <v>11.80903744827387</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.860082156203867</v>
+        <v>2.903212144694839</v>
       </c>
     </row>
     <row r="10">
@@ -827,7 +825,7 @@
         <v>-0.1456524087820797</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.007375723757403405</v>
+        <v>0.007375723757403752</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>1.134873505087742</v>
@@ -839,7 +837,7 @@
         <v>-0.1978456563308464</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.004045169008528007</v>
+        <v>0.004045169008528198</v>
       </c>
     </row>
     <row r="11">
@@ -850,24 +848,24 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.5436859922814697</v>
+        <v>-0.5579825245989372</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.370435192793099</v>
+        <v>-3.592819496672572</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.093509866743061</v>
+        <v>-0.9506876476982845</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.772749313175549</v>
+        <v>-1.911631095056563</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="n">
-        <v>-0.8940847480904982</v>
+        <v>-0.9136680614767807</v>
       </c>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>-0.7107277568533135</v>
+        <v>-0.7845866846931787</v>
       </c>
     </row>
     <row r="12">
@@ -878,24 +876,24 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.141284291385277</v>
+        <v>3.006949701129502</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6149844845368467</v>
+        <v>0.4124450092481031</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.006477151639457</v>
+        <v>2.073348402564135</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.24473239440904</v>
+        <v>1.837207134125913</v>
       </c>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="n">
-        <v>0.6543952901868624</v>
+        <v>0.3823271556636086</v>
       </c>
       <c r="I12" s="6" t="inlineStr"/>
       <c r="J12" s="6" t="n">
-        <v>2.159184897638795</v>
+        <v>1.523727323105635</v>
       </c>
     </row>
     <row r="13">
@@ -942,28 +940,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.5228066388995244</v>
+        <v>-0.486209419657455</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03763275650550812</v>
+        <v>-0.06059904470518874</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01847915898414626</v>
+        <v>0.08183809194644974</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.6128454349981965</v>
+        <v>-0.6851096497212842</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4300443604876614</v>
+        <v>-0.4223412447264615</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1628442582152295</v>
+        <v>-0.154877246866412</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1473203788049602</v>
+        <v>-0.1241206706801841</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2742082527727275</v>
+        <v>-0.2906068554680644</v>
       </c>
     </row>
     <row r="15">
@@ -974,28 +972,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.522410013791499</v>
+        <v>1.635371611952334</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.770162107223937</v>
+        <v>2.67005888641157</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.9571995803927</v>
+        <v>1.9143471921577</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.906997417022105</v>
+        <v>1.911336400807054</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.457283386815185</v>
+        <v>2.883164919485959</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>3.334522668112306</v>
+        <v>3.332286201326404</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>7.030578859207306</v>
+        <v>6.26644055596325</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.356264871910048</v>
+        <v>1.434357338678963</v>
       </c>
     </row>
     <row r="16">
@@ -1019,7 +1017,7 @@
         <v>0.9540632686656013</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.3872961341915848</v>
+        <v>0.3872961341915858</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.3092676127152025</v>
@@ -1031,7 +1029,7 @@
         <v>0.5253177231593047</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.1496557771784069</v>
+        <v>0.1496557771784073</v>
       </c>
     </row>
     <row r="17">
@@ -1042,28 +1040,26 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.577096271710801</v>
+        <v>-1.463048495580818</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1064365617929371</v>
+        <v>-0.008248440190660537</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.8816658341340011</v>
+        <v>-0.6982107835573282</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.387675621721192</v>
-      </c>
-      <c r="G17" s="6" t="n">
-        <v>-0.9999936697632952</v>
-      </c>
+        <v>-1.339217484405798</v>
+      </c>
+      <c r="G17" s="6" t="inlineStr"/>
       <c r="H17" s="6" t="n">
-        <v>-0.02777586468410987</v>
+        <v>-0.0815154671974726</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.3454045276229032</v>
+        <v>-0.2821235880014266</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.387078596827941</v>
+        <v>-0.3506307098622679</v>
       </c>
     </row>
     <row r="18">
@@ -1074,26 +1070,26 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6082347456248062</v>
+        <v>0.7019145766744799</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.376146542846597</v>
+        <v>3.19794258743309</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.675773648123274</v>
+        <v>2.818258296154409</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.826402649773889</v>
+        <v>1.984469855654758</v>
       </c>
       <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="n">
-        <v>6.020394383433051</v>
+        <v>4.828576532809825</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2.865069857236808</v>
+        <v>2.699783344625903</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.085783797617045</v>
+        <v>1.261270240899588</v>
       </c>
     </row>
     <row r="19">
@@ -1117,7 +1113,7 @@
         <v>-0.4420171749324606</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-0.9430844369433651</v>
+        <v>-0.9430844369433637</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.4386906513942291</v>
@@ -1129,7 +1125,7 @@
         <v>-0.2453613095870134</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.2046865911952423</v>
+        <v>-0.204686591195242</v>
       </c>
     </row>
     <row r="20">
@@ -1140,28 +1136,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-3.414384130514771</v>
+        <v>-3.626610097737749</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-5.685943373069301</v>
+        <v>-5.494498882656195</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-2.620768287108514</v>
+        <v>-2.644746339084374</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-5.810710478209711</v>
+        <v>-6.345840907927061</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.787864788416765</v>
+        <v>-0.8015785891379854</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.7981331533273768</v>
+        <v>-0.8053731937103187</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.7574133655880027</v>
+        <v>-0.7357988342847569</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.6656877866511903</v>
+        <v>-0.685019249558205</v>
       </c>
     </row>
     <row r="21">
@@ -1172,28 +1168,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.4747659717450041</v>
+        <v>0.5287989240849442</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1781074311562258</v>
+        <v>0.3980063104925737</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1.012888088248384</v>
+        <v>1.037698260283053</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1.907104936459818</v>
+        <v>1.918348175501204</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4937644048842768</v>
+        <v>0.6070949563773744</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1579287816478096</v>
+        <v>0.2448770284956207</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.694807653736869</v>
+        <v>1.903639149171994</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.9338918129450547</v>
+        <v>0.8750041884187421</v>
       </c>
     </row>
     <row r="22">
@@ -1217,7 +1213,7 @@
         <v>0.679936118296753</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.5995959923246943</v>
+        <v>0.5995959923246936</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2849110712643297</v>
@@ -1229,7 +1225,7 @@
         <v>0.7216214861529771</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.267811954264344</v>
+        <v>0.2678119542643436</v>
       </c>
     </row>
     <row r="23">
@@ -1240,28 +1236,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.2447667005625667</v>
+        <v>-0.2364286709202603</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.4924520395097985</v>
+        <v>-0.3837834565133455</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1542327676331076</v>
+        <v>0.1255978218513769</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.1243565571824896</v>
+        <v>-0.183736597581972</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.2235398623391714</v>
+        <v>-0.2129705039452642</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.230636261272297</v>
+        <v>-0.1796340532302581</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1017895969165454</v>
+        <v>0.08615358663419867</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.05484648836697247</v>
+        <v>-0.07069501588914334</v>
       </c>
     </row>
     <row r="24">
@@ -1272,28 +1268,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.7348865663098306</v>
+        <v>0.7616964952466415</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.9489177793547505</v>
+        <v>0.9598278646292715</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.24463564338169</v>
+        <v>1.218117942645516</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.269240360460446</v>
+        <v>1.321539630285354</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.076680150519375</v>
+        <v>1.143699107554227</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.6679756036817801</v>
+        <v>0.627985158094946</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>1.730847453835906</v>
+        <v>1.630256287126681</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.696023494003568</v>
+        <v>0.6972318066678445</v>
       </c>
     </row>
     <row r="25">
